--- a/Date and Time.xlsx
+++ b/Date and Time.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smit\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\smit\Desktop\Learning Git\testing2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -391,10 +391,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D7"/>
+  <dimension ref="A2:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="D7" sqref="D3:D7"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -402,7 +402,7 @@
     <col min="4" max="4" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -416,7 +416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2010</v>
       </c>
@@ -428,7 +428,7 @@
       </c>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2001</v>
       </c>
@@ -439,8 +439,11 @@
         <v>1</v>
       </c>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2011</v>
       </c>
@@ -452,7 +455,7 @@
       </c>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2005</v>
       </c>
@@ -464,7 +467,7 @@
       </c>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2008</v>
       </c>
@@ -645,7 +648,7 @@
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <f ca="1">NOW()</f>
-        <v>44198.400470717592</v>
+        <v>44207.503678009256</v>
       </c>
     </row>
   </sheetData>
